--- a/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0,0; 6,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,97</t>
+          <t>1,5; 7,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,47</t>
+          <t>1,28; 5,5</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,65</t>
+          <t>0,3; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,04</t>
+          <t>1,6; 5,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,33</t>
+          <t>1,16; 3,19</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,13</t>
+          <t>2,5; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,01</t>
+          <t>4,52; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,61</t>
+          <t>4,0; 6,57</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,23</t>
+          <t>3,48; 7,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,51</t>
+          <t>8,27; 13,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,54</t>
+          <t>6,2; 9,49</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,86</t>
+          <t>7,81; 12,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,69</t>
+          <t>17,18; 22,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 16,82</t>
+          <t>13,23; 16,78</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,9</t>
+          <t>13,27; 17,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 25,04</t>
+          <t>14,81; 25,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,09</t>
+          <t>15,51; 21,07</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,0</t>
+          <t>6,21; 7,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,74</t>
+          <t>11,27; 13,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,75</t>
+          <t>9,22; 10,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,34</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,88</t>
+          <t>1,48; 7,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,5</t>
+          <t>1,3; 5,47</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,64</t>
+          <t>0,27; 2,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,23</t>
+          <t>1,59; 5,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,19</t>
+          <t>1,18; 3,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,02</t>
+          <t>2,58; 6,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,19</t>
+          <t>4,66; 8,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,57</t>
+          <t>4,06; 6,61</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 7,13</t>
+          <t>3,19; 7,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,61</t>
+          <t>8,42; 13,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 9,49</t>
+          <t>6,3; 9,54</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,81; 12,7</t>
+          <t>7,97; 12,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,18; 22,51</t>
+          <t>17,77; 22,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,78</t>
+          <t>13,29; 16,82</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,27; 17,76</t>
+          <t>13,52; 17,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,81; 25,04</t>
+          <t>15,45; 25,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,07</t>
+          <t>15,08; 21,09</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,98</t>
+          <t>6,23; 8,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 13,67</t>
+          <t>11,36; 13,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 10,74</t>
+          <t>9,35; 10,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,65%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0,0; 6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,97</t>
+          <t>1,3; 7,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,47</t>
+          <t>1,22; 5,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,65</t>
+          <t>0,21; 2,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,04</t>
+          <t>1,28; 4,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,33</t>
+          <t>0,97; 2,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,0%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,13</t>
+          <t>2,42; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,01</t>
+          <t>4,63; 8,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,61</t>
+          <t>3,95; 6,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,23</t>
+          <t>1,42; 6,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,51</t>
+          <t>7,67; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,54</t>
+          <t>3,96; 8,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>14,59%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,86</t>
+          <t>7,65; 12,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,77; 22,69</t>
+          <t>17,42; 22,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 16,82</t>
+          <t>12,89; 16,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,52; 17,9</t>
+          <t>9,61; 14,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,45; 25,04</t>
+          <t>4,61; 20,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,08; 21,09</t>
+          <t>5,71; 16,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>24,24%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 8,0</t>
+          <t>15,45; 22,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 13,74</t>
+          <t>24,71; 30,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 10,75</t>
+          <t>21,93; 26,69</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11,69%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 7,32</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 12,88</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 9,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,83</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 7,35</t>
+          <t>1,39; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,5</t>
+          <t>1,11; 5,36</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,34</t>
+          <t>0,25; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,44</t>
+          <t>1,29; 4,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,85</t>
+          <t>0,98; 2,91</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,8</t>
+          <t>2,4; 5,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 8,0</t>
+          <t>4,67; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,42</t>
+          <t>3,82; 6,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 6,07</t>
+          <t>1,57; 6,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 12,48</t>
+          <t>7,74; 12,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,21</t>
+          <t>4,02; 8,15</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 12,47</t>
+          <t>7,5; 12,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 22,27</t>
+          <t>17,0; 22,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,89; 16,36</t>
+          <t>12,82; 16,65</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,85</t>
+          <t>9,46; 14,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 20,05</t>
+          <t>5,16; 20,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 16,36</t>
+          <t>5,89; 16,35</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 22,84</t>
+          <t>15,62; 22,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,71; 30,93</t>
+          <t>24,69; 30,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,93; 26,69</t>
+          <t>21,92; 26,75</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,9; 7,32</t>
+          <t>4,87; 7,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,58; 12,88</t>
+          <t>9,3; 12,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,94; 9,99</t>
+          <t>7,91; 9,93</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que toma algún remedio para dormir (no medicamentos)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7755</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11133</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18888</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 26605</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4342; 24854</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7910; 38198</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12962</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16439</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1078; 9168</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6598; 22431</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9145; 27223</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>20329</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33663</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12846; 30669</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25347; 44299</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41208; 67438</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34308</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>68160</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>102468</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13901; 54051</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55150; 88690</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>64360; 130478</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>54825</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106370</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>161196</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41924; 68015</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92766; 121122</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>141599; 183890</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>44329</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>77600</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>121929</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>34838; 54689</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>31332; 123149</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>57494; 159607</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>53893</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>117743</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>171636</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44170; 64467</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>104992; 131300</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>155194; 189418</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>763</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1045</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>218916</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>427630</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>646547</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>168299; 252267</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>340066; 470832</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>563165; 706476</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>